--- a/data/Interventions_Inputs_n_Outputs.xlsx
+++ b/data/Interventions_Inputs_n_Outputs.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tishmanspeyercloud-my.sharepoint.com/personal/prode_tishmanspeyer_com/Documents/Documents/R/NCZ_Interventions/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="171" documentId="13_ncr:1_{7030BBB7-173A-4394-9DFD-CC14D5F30F06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{53A7AA9F-93DF-4880-946D-B9A46ECE7B60}"/>
+  <xr:revisionPtr revIDLastSave="209" documentId="13_ncr:1_{7030BBB7-173A-4394-9DFD-CC14D5F30F06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3C391F75-3D9F-43FF-AE4F-1597CB9F62EE}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-75" windowWidth="29040" windowHeight="15840" xr2:uid="{73048387-4E92-4906-81CA-9C6189A709FA}"/>
+    <workbookView minimized="1" xWindow="10035" yWindow="1980" windowWidth="14475" windowHeight="11265" activeTab="3" xr2:uid="{73048387-4E92-4906-81CA-9C6189A709FA}"/>
   </bookViews>
   <sheets>
     <sheet name="160 Spear " sheetId="1" r:id="rId1"/>
     <sheet name="OneFED" sheetId="3" r:id="rId2"/>
     <sheet name="333 Bush" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'160 Spear '!$B$17:$P$25</definedName>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="123">
   <si>
     <t>Building Level Interventions</t>
   </si>
@@ -379,21 +380,6 @@
     <t xml:space="preserve">Insulation and wet sealing </t>
   </si>
   <si>
-    <t>Limited FaÃ§ade Air Stopping</t>
-  </si>
-  <si>
-    <t>Insulation and wet sealing</t>
-  </si>
-  <si>
-    <t>New window film</t>
-  </si>
-  <si>
-    <t>Elevator Mod with energy recovery</t>
-  </si>
-  <si>
-    <t>Heating Electrification via ASHP's</t>
-  </si>
-  <si>
     <t>Chiller Plant</t>
   </si>
   <si>
@@ -407,6 +393,66 @@
   </si>
   <si>
     <t xml:space="preserve"> Capex </t>
+  </si>
+  <si>
+    <t>333 Bush</t>
+  </si>
+  <si>
+    <t>Optimun Start / Stop</t>
+  </si>
+  <si>
+    <t>Controls with  ML program</t>
+  </si>
+  <si>
+    <t>Pumping Optizamation</t>
+  </si>
+  <si>
+    <t>VFD's Controls with  ML program</t>
+  </si>
+  <si>
+    <t>Back of house lighting</t>
+  </si>
+  <si>
+    <t>Optional add to elevator package</t>
+  </si>
+  <si>
+    <t>Limited Façade Air Stopping</t>
+  </si>
+  <si>
+    <t>Insulation and wet sealing</t>
+  </si>
+  <si>
+    <t>Airside energy  recovery</t>
+  </si>
+  <si>
+    <t>Run Arouind Coils</t>
+  </si>
+  <si>
+    <t>Chiller plant optimization</t>
+  </si>
+  <si>
+    <t>Window Retrofit</t>
+  </si>
+  <si>
+    <t>New window film</t>
+  </si>
+  <si>
+    <t>Chiller end of life replacement</t>
+  </si>
+  <si>
+    <t>Chiller plan replacement</t>
+  </si>
+  <si>
+    <t>Elevator energy revovery</t>
+  </si>
+  <si>
+    <t>Elevator Mod with energy recovery</t>
+  </si>
+  <si>
+    <t>Water soruced heat recovery</t>
+  </si>
+  <si>
+    <t>Heating Electrification via ASHP's</t>
   </si>
 </sst>
 </file>
@@ -419,7 +465,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -485,8 +531,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -522,8 +574,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="16">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -706,13 +764,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFD6DADC"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFD6DADC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -759,6 +828,7 @@
     </xf>
     <xf numFmtId="44" fontId="7" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="8" fontId="7" fillId="5" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -786,7 +856,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="8" fontId="7" fillId="5" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="20% - Accent1" xfId="2" builtinId="30"/>
@@ -995,6 +1070,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1296,8 +1375,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF149E70-DC8C-4A8D-84BB-B0051DA57024}">
   <dimension ref="A2:P57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+    <sheetView topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1325,23 +1404,23 @@
       </c>
     </row>
     <row r="4" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D4" s="26" t="s">
+      <c r="D4" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="29"/>
     </row>
     <row r="5" spans="3:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C5"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="31"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="32"/>
       <c r="J5"/>
       <c r="K5"/>
       <c r="L5"/>
@@ -1352,84 +1431,84 @@
     </row>
     <row r="6" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C6" s="3"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="31"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="32"/>
     </row>
     <row r="7" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="D7" s="29"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="31"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="32"/>
     </row>
     <row r="8" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="D8" s="29"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="31"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="32"/>
     </row>
     <row r="9" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="D9" s="29"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="31"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="32"/>
     </row>
     <row r="10" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="D10" s="29"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="31"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="32"/>
     </row>
     <row r="11" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="D11" s="29"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="31"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="32"/>
     </row>
     <row r="12" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="D12" s="29"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="31"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="32"/>
     </row>
     <row r="13" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="D13" s="29"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="31"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="32"/>
     </row>
     <row r="14" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="D14" s="29"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="31"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="32"/>
     </row>
     <row r="15" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="D15" s="32"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="33"/>
-      <c r="I15" s="34"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="35"/>
     </row>
     <row r="17" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -1504,16 +1583,16 @@
         <v>35000</v>
       </c>
       <c r="H18" s="20" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="I18" s="17">
-        <v>0.02</v>
+        <v>61280.293085420599</v>
       </c>
       <c r="J18" s="17">
-        <v>0.02</v>
+        <v>61943.629234032298</v>
       </c>
       <c r="K18" s="17" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="L18" s="19">
         <v>10</v>
@@ -1522,7 +1601,7 @@
         <v>2025</v>
       </c>
       <c r="N18" s="21" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="O18" s="22" t="s">
         <v>16</v>
@@ -1554,16 +1633,16 @@
         <v>120000</v>
       </c>
       <c r="H19" s="20" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="I19" s="17">
-        <v>0.01</v>
+        <v>13590.859625511899</v>
       </c>
       <c r="J19" s="17">
-        <v>0.01</v>
+        <v>26675.143319999999</v>
       </c>
       <c r="K19" s="17" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="L19" s="19">
         <v>25</v>
@@ -1572,7 +1651,7 @@
         <v>2035</v>
       </c>
       <c r="N19" s="21" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="O19" s="22" t="s">
         <v>16</v>
@@ -1595,7 +1674,7 @@
         <v>24</v>
       </c>
       <c r="E20" s="19" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F20" s="19" t="s">
         <v>18</v>
@@ -1604,24 +1683,24 @@
         <v>650000</v>
       </c>
       <c r="H20" s="24" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="I20" s="17">
-        <v>0.8</v>
-      </c>
-      <c r="J20" s="17" t="s">
-        <v>105</v>
+        <v>84122.974507392195</v>
+      </c>
+      <c r="J20" s="17">
+        <v>0</v>
       </c>
       <c r="K20" s="17" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="L20" s="19">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="M20" s="19">
         <v>2028</v>
       </c>
-      <c r="N20" s="35">
+      <c r="N20" s="26">
         <v>-25000</v>
       </c>
       <c r="O20" s="22" t="s">
@@ -1654,25 +1733,25 @@
         <v>85000</v>
       </c>
       <c r="H21" s="24" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="I21" s="17">
-        <v>-1</v>
+        <v>-39088.421263962002</v>
       </c>
       <c r="J21" s="17">
-        <v>0.05</v>
+        <v>133.3757166</v>
       </c>
       <c r="K21" s="17" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="L21" s="19">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="M21" s="19">
         <v>2024</v>
       </c>
       <c r="N21" s="21" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="O21" s="22" t="s">
         <v>16</v>
@@ -1704,25 +1783,25 @@
         <v>1000000</v>
       </c>
       <c r="H22" s="24" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="I22" s="17">
-        <v>0.05</v>
+        <v>14228.121804160501</v>
       </c>
       <c r="J22" s="17">
-        <v>0.05</v>
+        <v>18386.175023379099</v>
       </c>
       <c r="K22" s="17" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="L22" s="19">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="M22" s="19">
         <v>2023</v>
       </c>
       <c r="N22" s="21" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="O22" s="22" t="s">
         <v>16</v>
@@ -1754,25 +1833,25 @@
         <v>10000000</v>
       </c>
       <c r="H23" s="20" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="I23" s="17">
-        <v>0.03</v>
+        <v>8110.0294283715202</v>
       </c>
       <c r="J23" s="17">
-        <v>0.03</v>
+        <v>10480.1197633261</v>
       </c>
       <c r="K23" s="17" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="L23" s="19">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="M23" s="19">
         <v>2028</v>
       </c>
       <c r="N23" s="21" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="O23" s="22" t="s">
         <v>16</v>
@@ -1804,25 +1883,25 @@
         <v>2750000</v>
       </c>
       <c r="H24" s="24" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="I24" s="17">
-        <v>-3.5</v>
+        <v>-238865.81497372501</v>
       </c>
       <c r="J24" s="17">
-        <v>0.95</v>
+        <v>2852.6643887400201</v>
       </c>
       <c r="K24" s="17" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="L24" s="19">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="M24" s="19">
         <v>2030</v>
       </c>
-      <c r="N24" s="35">
-        <v>-10000</v>
+      <c r="N24" s="26">
+        <v>-35000</v>
       </c>
       <c r="O24" s="22" t="s">
         <v>16</v>
@@ -1854,25 +1933,25 @@
         <v>1500000</v>
       </c>
       <c r="H25" s="24" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="I25" s="17">
-        <v>-1</v>
+        <v>-836030.35240803903</v>
       </c>
       <c r="J25" s="17">
-        <v>0.95</v>
+        <v>2852.6643887400201</v>
       </c>
       <c r="K25" s="17" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="L25" s="19">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="M25" s="19">
         <v>2026</v>
       </c>
-      <c r="N25" s="35">
-        <v>-35000</v>
+      <c r="N25" s="26">
+        <v>-5000</v>
       </c>
       <c r="O25" s="22" t="s">
         <v>16</v>
@@ -1904,16 +1983,16 @@
         <v>230000</v>
       </c>
       <c r="H26" s="24" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="I26" s="17">
-        <v>0.01</v>
+        <v>1781.0131034328699</v>
       </c>
       <c r="J26" s="17">
-        <v>0.06</v>
+        <v>20331.4323408526</v>
       </c>
       <c r="K26" s="17" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="L26" s="19">
         <v>15</v>
@@ -1922,7 +2001,7 @@
         <v>2030</v>
       </c>
       <c r="N26" s="21" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="O26" s="22" t="s">
         <v>16</v>
@@ -2300,7 +2379,7 @@
         <v>5</v>
       </c>
       <c r="H50" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="I50">
         <v>1126009.1946713801</v>
@@ -2470,8 +2549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CB72813-A570-4FD0-A022-CFACC42DD505}">
   <dimension ref="A2:P64"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="E59" sqref="E59"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2499,23 +2578,23 @@
       </c>
     </row>
     <row r="4" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D4" s="26" t="s">
+      <c r="D4" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="29"/>
     </row>
     <row r="5" spans="3:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C5"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="31"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="32"/>
       <c r="J5"/>
       <c r="K5"/>
       <c r="L5"/>
@@ -2526,84 +2605,84 @@
     </row>
     <row r="6" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C6" s="3"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="31"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="32"/>
     </row>
     <row r="7" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="D7" s="29"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="31"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="32"/>
     </row>
     <row r="8" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="D8" s="29"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="31"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="32"/>
     </row>
     <row r="9" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="D9" s="29"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="31"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="32"/>
     </row>
     <row r="10" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="D10" s="29"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="31"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="32"/>
     </row>
     <row r="11" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="D11" s="29"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="31"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="32"/>
     </row>
     <row r="12" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="D12" s="29"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="31"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="32"/>
     </row>
     <row r="13" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="D13" s="29"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="31"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="32"/>
     </row>
     <row r="14" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="D14" s="29"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="31"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="32"/>
     </row>
     <row r="15" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="D15" s="32"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="33"/>
-      <c r="I15" s="34"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="35"/>
     </row>
     <row r="17" spans="1:16" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -3959,10 +4038,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{963D9F0D-2B14-4150-932F-0DCDDE43FCB8}">
-  <dimension ref="A2:P60"/>
+  <dimension ref="A2:P46"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView topLeftCell="D16" workbookViewId="0">
+      <selection activeCell="L35" sqref="L35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3990,23 +4069,23 @@
       </c>
     </row>
     <row r="4" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D4" s="26" t="s">
+      <c r="D4" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="29"/>
     </row>
     <row r="5" spans="3:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C5"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="31"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="32"/>
       <c r="J5"/>
       <c r="K5"/>
       <c r="L5"/>
@@ -4017,84 +4096,84 @@
     </row>
     <row r="6" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C6" s="3"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="31"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="32"/>
     </row>
     <row r="7" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="D7" s="29"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="31"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="32"/>
     </row>
     <row r="8" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="D8" s="29"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="31"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="32"/>
     </row>
     <row r="9" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="D9" s="29"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="31"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="32"/>
     </row>
     <row r="10" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="D10" s="29"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="31"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="32"/>
     </row>
     <row r="11" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="D11" s="29"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="31"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="32"/>
     </row>
     <row r="12" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="D12" s="29"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="31"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="32"/>
     </row>
     <row r="13" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="D13" s="29"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="31"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="32"/>
     </row>
     <row r="14" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="D14" s="29"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="31"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="32"/>
     </row>
     <row r="15" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="D15" s="32"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="33"/>
-      <c r="I15" s="34"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="35"/>
     </row>
     <row r="17" spans="1:16" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -4172,7 +4251,7 @@
         <v>19</v>
       </c>
       <c r="I18" s="17">
-        <v>0.02</v>
+        <v>7833.4369999999999</v>
       </c>
       <c r="J18" s="17">
         <v>0</v>
@@ -4223,7 +4302,7 @@
         <v>19</v>
       </c>
       <c r="I19" s="17">
-        <v>0.01</v>
+        <v>46337.076999999997</v>
       </c>
       <c r="J19" s="17">
         <v>0</v>
@@ -4273,10 +4352,10 @@
         <v>19</v>
       </c>
       <c r="I20" s="17">
-        <v>-3.5</v>
+        <v>-24296.017</v>
       </c>
       <c r="J20" s="17">
-        <v>0.8</v>
+        <v>290.15609999999998</v>
       </c>
       <c r="K20" s="17">
         <v>0</v>
@@ -4323,7 +4402,7 @@
         <v>15</v>
       </c>
       <c r="I21" s="17">
-        <v>5.0000000000000001E-3</v>
+        <v>23284.963</v>
       </c>
       <c r="J21" s="17">
         <v>0</v>
@@ -4373,10 +4452,10 @@
         <v>15</v>
       </c>
       <c r="I22" s="17">
-        <v>-3.5</v>
+        <v>-10123.34</v>
       </c>
       <c r="J22" s="17">
-        <v>0.2</v>
+        <v>120.8984</v>
       </c>
       <c r="K22" s="17">
         <v>0</v>
@@ -4423,7 +4502,7 @@
         <v>15</v>
       </c>
       <c r="I23" s="17">
-        <v>0.2</v>
+        <v>27182.309000000001</v>
       </c>
       <c r="J23" s="17">
         <v>0</v>
@@ -4473,7 +4552,7 @@
         <v>19</v>
       </c>
       <c r="I24" s="17">
-        <v>0.1</v>
+        <v>15409.472</v>
       </c>
       <c r="J24" s="17">
         <v>0</v>
@@ -4523,10 +4602,10 @@
         <v>19</v>
       </c>
       <c r="I25" s="17">
-        <v>0.05</v>
+        <v>25570.275000000001</v>
       </c>
       <c r="J25" s="17">
-        <v>0.05</v>
+        <v>56093.537199999999</v>
       </c>
       <c r="K25" s="17">
         <v>0</v>
@@ -4573,10 +4652,10 @@
         <v>15</v>
       </c>
       <c r="I26" s="17">
-        <v>0.1</v>
+        <v>45231.26</v>
       </c>
       <c r="J26" s="17">
-        <v>0.1</v>
+        <v>99223.857900000003</v>
       </c>
       <c r="K26" s="17">
         <v>0</v>
@@ -4623,10 +4702,10 @@
         <v>15</v>
       </c>
       <c r="I27" s="17">
-        <v>0.05</v>
+        <v>24291.760999999999</v>
       </c>
       <c r="J27" s="17">
-        <v>0.05</v>
+        <v>53288.8603</v>
       </c>
       <c r="K27" s="17">
         <v>0</v>
@@ -4673,10 +4752,10 @@
         <v>15</v>
       </c>
       <c r="I28" s="17">
-        <v>0.02</v>
+        <v>9230.8690000000006</v>
       </c>
       <c r="J28" s="17">
-        <v>0.02</v>
+        <v>20249.766899999999</v>
       </c>
       <c r="K28" s="17">
         <v>0</v>
@@ -4688,7 +4767,7 @@
         <v>2030</v>
       </c>
       <c r="N28" s="21">
-        <v>0</v>
+        <v>-10000</v>
       </c>
       <c r="O28" s="22" t="s">
         <v>16</v>
@@ -4727,592 +4806,430 @@
       <c r="O30" s="22"/>
       <c r="P30" s="23"/>
     </row>
-    <row r="31" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D31" s="19"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="24"/>
-      <c r="I31" s="17"/>
-      <c r="J31" s="17"/>
-      <c r="K31" s="17"/>
-      <c r="L31" s="19"/>
-      <c r="M31" s="19"/>
-      <c r="N31" s="21"/>
-      <c r="O31" s="22"/>
-      <c r="P31" s="23"/>
-    </row>
-    <row r="32" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D32" s="19"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="20"/>
-      <c r="H32" s="24"/>
-      <c r="I32" s="17"/>
-      <c r="J32" s="17"/>
-      <c r="K32" s="17"/>
-      <c r="L32" s="19"/>
-      <c r="M32" s="19"/>
-      <c r="N32" s="21"/>
-      <c r="O32" s="22"/>
-      <c r="P32" s="23"/>
-    </row>
-    <row r="33" spans="4:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D33" s="19"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="19"/>
-      <c r="G33" s="20"/>
-      <c r="H33" s="24"/>
-      <c r="I33" s="17"/>
-      <c r="J33" s="17"/>
-      <c r="K33" s="17"/>
-      <c r="L33" s="19"/>
-      <c r="M33" s="19"/>
-      <c r="N33" s="21"/>
-      <c r="O33" s="22"/>
-      <c r="P33" s="23"/>
-    </row>
-    <row r="34" spans="4:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D34" s="19"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="19"/>
-      <c r="G34" s="20"/>
-      <c r="H34" s="24"/>
-      <c r="I34" s="17"/>
-      <c r="J34" s="17"/>
-      <c r="K34" s="17"/>
-      <c r="L34" s="19"/>
-      <c r="M34" s="19"/>
-      <c r="N34" s="21"/>
-      <c r="O34" s="22"/>
-      <c r="P34" s="23"/>
-    </row>
-    <row r="35" spans="4:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D35" s="19"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="19"/>
-      <c r="G35" s="20"/>
-      <c r="H35" s="24"/>
-      <c r="I35" s="17"/>
-      <c r="J35" s="17"/>
-      <c r="K35" s="17"/>
-      <c r="L35" s="19"/>
-      <c r="M35" s="19"/>
-      <c r="N35" s="21"/>
-      <c r="O35" s="22"/>
-      <c r="P35" s="23"/>
-    </row>
-    <row r="36" spans="4:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D36" s="19"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="19"/>
-      <c r="G36" s="20"/>
-      <c r="H36" s="24"/>
-      <c r="I36" s="17"/>
-      <c r="J36" s="17"/>
-      <c r="K36" s="17"/>
-      <c r="L36" s="19"/>
-      <c r="M36" s="19"/>
-      <c r="N36" s="21"/>
-      <c r="O36" s="22"/>
-      <c r="P36" s="23"/>
-    </row>
-    <row r="37" spans="4:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D37" s="19"/>
-      <c r="E37" s="19"/>
-      <c r="F37" s="19"/>
-      <c r="G37" s="20"/>
-      <c r="H37" s="24"/>
-      <c r="I37" s="17"/>
-      <c r="J37" s="17"/>
-      <c r="K37" s="17"/>
-      <c r="L37" s="19"/>
-      <c r="M37" s="19"/>
-      <c r="N37" s="21"/>
-      <c r="O37" s="22"/>
-      <c r="P37" s="23"/>
-    </row>
-    <row r="38" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="14"/>
-      <c r="I38" s="10"/>
-      <c r="J38" s="10"/>
-      <c r="K38" s="10"/>
-      <c r="L38" s="8"/>
-      <c r="M38" s="8"/>
-      <c r="N38" s="11"/>
-      <c r="O38" s="12"/>
-      <c r="P38" s="13"/>
-    </row>
-    <row r="39" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="14"/>
-      <c r="I39" s="10"/>
-      <c r="J39" s="10"/>
-      <c r="K39" s="10"/>
-      <c r="L39" s="8"/>
-      <c r="M39" s="8"/>
-      <c r="N39" s="11"/>
-      <c r="O39" s="12"/>
-      <c r="P39" s="13"/>
-    </row>
-    <row r="40" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="9"/>
-      <c r="H40" s="14"/>
-      <c r="I40" s="10"/>
-      <c r="J40" s="10"/>
-      <c r="K40" s="10"/>
-      <c r="L40" s="8"/>
-      <c r="M40" s="8"/>
-      <c r="N40" s="11"/>
-      <c r="O40" s="12"/>
-      <c r="P40" s="13"/>
-    </row>
-    <row r="41" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8"/>
-      <c r="G41" s="9"/>
-      <c r="H41" s="14"/>
-      <c r="I41" s="10"/>
-      <c r="J41" s="10"/>
-      <c r="K41" s="10"/>
-      <c r="L41" s="8"/>
-      <c r="M41" s="8"/>
-      <c r="N41" s="11"/>
-      <c r="O41" s="12"/>
-      <c r="P41" s="13"/>
-    </row>
-    <row r="42" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
-      <c r="F42" s="8"/>
-      <c r="G42" s="9"/>
-      <c r="H42" s="14"/>
-      <c r="I42" s="10"/>
-      <c r="J42" s="10"/>
-      <c r="K42" s="10"/>
-      <c r="L42" s="8"/>
-      <c r="M42" s="8"/>
-      <c r="N42" s="11"/>
-      <c r="O42" s="12"/>
-      <c r="P42" s="13"/>
-    </row>
-    <row r="43" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D43" s="8"/>
-      <c r="E43" s="8"/>
-      <c r="F43" s="8"/>
-      <c r="G43" s="9"/>
-      <c r="H43" s="14"/>
-      <c r="I43" s="10"/>
-      <c r="J43" s="10"/>
-      <c r="K43" s="10"/>
-      <c r="L43" s="8"/>
-      <c r="M43" s="8"/>
-      <c r="N43" s="11"/>
-      <c r="O43" s="12"/>
-      <c r="P43" s="13"/>
-    </row>
-    <row r="44" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D44" s="8"/>
-      <c r="E44" s="8"/>
-      <c r="F44" s="8"/>
-      <c r="G44" s="9"/>
-      <c r="H44" s="14"/>
-      <c r="I44" s="10"/>
-      <c r="J44" s="10"/>
-      <c r="K44" s="10"/>
-      <c r="L44" s="8"/>
-      <c r="M44" s="8"/>
-      <c r="N44" s="11"/>
-      <c r="O44" s="12"/>
-      <c r="P44" s="13"/>
-    </row>
-    <row r="45" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D45" s="8"/>
-      <c r="E45" s="8" t="s">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D31" s="8"/>
+      <c r="E31" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F45" s="8"/>
-      <c r="G45" s="9"/>
-      <c r="H45" s="14"/>
-      <c r="I45" s="10"/>
-      <c r="J45" s="10"/>
-      <c r="K45" s="10"/>
-      <c r="L45" s="8"/>
-      <c r="M45" s="8"/>
-      <c r="N45" s="11"/>
-      <c r="O45" s="12"/>
-      <c r="P45" s="13"/>
-    </row>
-    <row r="46" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D46" s="8"/>
-      <c r="E46" s="8" t="s">
+      <c r="F31" s="8"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="8"/>
+      <c r="N31" s="11"/>
+      <c r="O31" s="12"/>
+      <c r="P31" s="13"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D32" s="8"/>
+      <c r="E32" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F46" s="8" t="s">
+      <c r="F32" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G46" s="9"/>
-      <c r="H46" s="14"/>
-      <c r="I46" s="10"/>
-      <c r="J46" s="10"/>
-      <c r="K46" s="10"/>
-      <c r="L46" s="8"/>
-      <c r="M46" s="8"/>
-      <c r="N46" s="11"/>
-      <c r="O46" s="12"/>
-      <c r="P46" s="13"/>
-    </row>
-    <row r="47" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D47" s="8"/>
-      <c r="E47" s="8"/>
-      <c r="F47" s="8"/>
-      <c r="G47" s="8"/>
-      <c r="H47" s="8"/>
-      <c r="I47" s="8"/>
-      <c r="J47" s="8"/>
-      <c r="K47" s="8"/>
-      <c r="L47" s="8"/>
-      <c r="M47" s="8"/>
-      <c r="N47" s="15"/>
-      <c r="O47" s="12"/>
-      <c r="P47" s="16"/>
-    </row>
-    <row r="49" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D49" t="s">
+      <c r="G32" s="9"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="8"/>
+      <c r="N32" s="11"/>
+      <c r="O32" s="12"/>
+      <c r="P32" s="13"/>
+    </row>
+    <row r="33" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="8"/>
+      <c r="N33" s="15"/>
+      <c r="O33" s="12"/>
+      <c r="P33" s="16"/>
+    </row>
+    <row r="35" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="D35" t="s">
         <v>41</v>
       </c>
-      <c r="E49" t="s">
+      <c r="E35" t="s">
         <v>50</v>
       </c>
-      <c r="F49" t="s">
+      <c r="F35" t="s">
         <v>2</v>
       </c>
-      <c r="G49" t="s">
+      <c r="G35" t="s">
         <v>40</v>
       </c>
-      <c r="H49" t="s">
+      <c r="H35" t="s">
         <v>3</v>
       </c>
-      <c r="I49" t="s">
+      <c r="I35" t="s">
         <v>7</v>
       </c>
-      <c r="J49" t="s">
+      <c r="J35" t="s">
         <v>8</v>
       </c>
-      <c r="K49" t="s">
+      <c r="K35" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D50" t="s">
-        <v>77</v>
-      </c>
-      <c r="E50">
+    <row r="36" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36" s="36" t="s">
+        <v>103</v>
+      </c>
+      <c r="E36" s="37">
         <v>597694</v>
       </c>
-      <c r="F50" t="s">
-        <v>91</v>
-      </c>
-      <c r="G50">
+      <c r="F36" s="36" t="s">
+        <v>115</v>
+      </c>
+      <c r="G36" s="37">
+        <v>8</v>
+      </c>
+      <c r="H36" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="I36" s="37">
+        <v>7833.4369999999999</v>
+      </c>
+      <c r="J36" s="37">
+        <v>0</v>
+      </c>
+      <c r="K36" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C37">
+        <v>2</v>
+      </c>
+      <c r="D37" s="36" t="s">
+        <v>103</v>
+      </c>
+      <c r="E37" s="37">
+        <v>597694</v>
+      </c>
+      <c r="F37" s="36" t="s">
+        <v>119</v>
+      </c>
+      <c r="G37" s="37">
+        <v>10</v>
+      </c>
+      <c r="H37" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="I37" s="37">
+        <v>46337.076999999997</v>
+      </c>
+      <c r="J37" s="37">
+        <v>0</v>
+      </c>
+      <c r="K37" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C38">
+        <v>3</v>
+      </c>
+      <c r="D38" s="36" t="s">
+        <v>103</v>
+      </c>
+      <c r="E38" s="37">
+        <v>597694</v>
+      </c>
+      <c r="F38" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="G38" s="37">
+        <v>11</v>
+      </c>
+      <c r="H38" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="I38" s="37">
+        <v>-24296.017</v>
+      </c>
+      <c r="J38" s="37">
+        <v>290.15609999999998</v>
+      </c>
+      <c r="K38" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C39">
+        <v>4</v>
+      </c>
+      <c r="D39" s="36" t="s">
+        <v>103</v>
+      </c>
+      <c r="E39" s="37">
+        <v>597694</v>
+      </c>
+      <c r="F39" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="G39" s="37">
+        <v>3</v>
+      </c>
+      <c r="H39" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="I39" s="37">
+        <v>23284.963</v>
+      </c>
+      <c r="J39" s="37">
+        <v>0</v>
+      </c>
+      <c r="K39" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C40">
+        <v>5</v>
+      </c>
+      <c r="D40" s="36" t="s">
+        <v>103</v>
+      </c>
+      <c r="E40" s="37">
+        <v>597694</v>
+      </c>
+      <c r="F40" s="36" t="s">
+        <v>121</v>
+      </c>
+      <c r="G40" s="37">
+        <v>7</v>
+      </c>
+      <c r="H40" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="I40" s="37">
+        <v>-10123.34</v>
+      </c>
+      <c r="J40" s="37">
+        <v>120.8984</v>
+      </c>
+      <c r="K40" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C41">
+        <v>6</v>
+      </c>
+      <c r="D41" s="36" t="s">
+        <v>103</v>
+      </c>
+      <c r="E41" s="37">
+        <v>597694</v>
+      </c>
+      <c r="F41" s="36" t="s">
+        <v>117</v>
+      </c>
+      <c r="G41" s="37">
+        <v>9</v>
+      </c>
+      <c r="H41" s="36" t="s">
+        <v>118</v>
+      </c>
+      <c r="I41" s="37">
+        <v>27182.309000000001</v>
+      </c>
+      <c r="J41" s="37">
+        <v>0</v>
+      </c>
+      <c r="K41" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C42">
+        <v>7</v>
+      </c>
+      <c r="D42" s="36" t="s">
+        <v>103</v>
+      </c>
+      <c r="E42" s="37">
+        <v>597694</v>
+      </c>
+      <c r="F42" s="36" t="s">
+        <v>114</v>
+      </c>
+      <c r="G42" s="37">
+        <v>6</v>
+      </c>
+      <c r="H42" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="I42" s="37">
+        <v>15409.472</v>
+      </c>
+      <c r="J42" s="37">
+        <v>0</v>
+      </c>
+      <c r="K42" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C43">
+        <v>8</v>
+      </c>
+      <c r="D43" s="36" t="s">
+        <v>103</v>
+      </c>
+      <c r="E43" s="37">
+        <v>597694</v>
+      </c>
+      <c r="F43" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="G43" s="37">
         <v>1</v>
       </c>
-      <c r="H50" t="s">
-        <v>90</v>
-      </c>
-      <c r="I50">
-        <v>209712.468548859</v>
-      </c>
-      <c r="J50">
-        <v>420.17009000000002</v>
-      </c>
-      <c r="K50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D51" t="s">
-        <v>77</v>
-      </c>
-      <c r="E51">
+      <c r="H43" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="I43" s="37">
+        <v>25570.275000000001</v>
+      </c>
+      <c r="J43" s="37">
+        <v>56093.537199999999</v>
+      </c>
+      <c r="K43" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C44">
+        <v>9</v>
+      </c>
+      <c r="D44" s="36" t="s">
+        <v>103</v>
+      </c>
+      <c r="E44" s="37">
         <v>597694</v>
       </c>
-      <c r="F51" t="s">
-        <v>94</v>
-      </c>
-      <c r="G51">
+      <c r="F44" s="36" t="s">
+        <v>112</v>
+      </c>
+      <c r="G44" s="37">
+        <v>5</v>
+      </c>
+      <c r="H44" s="36" t="s">
+        <v>113</v>
+      </c>
+      <c r="I44" s="37">
+        <v>45231.26</v>
+      </c>
+      <c r="J44" s="37">
+        <v>99223.857900000003</v>
+      </c>
+      <c r="K44" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C45">
+        <v>10</v>
+      </c>
+      <c r="D45" s="36" t="s">
+        <v>103</v>
+      </c>
+      <c r="E45" s="37">
+        <v>597694</v>
+      </c>
+      <c r="F45" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="G45" s="37">
         <v>2</v>
       </c>
-      <c r="H51" t="s">
-        <v>95</v>
-      </c>
-      <c r="I51">
-        <v>199226.845121416</v>
-      </c>
-      <c r="J51">
-        <v>420.14908149550001</v>
-      </c>
-      <c r="K51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D52" t="s">
-        <v>77</v>
-      </c>
-      <c r="E52">
+      <c r="H45" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="I45" s="37">
+        <v>24291.760999999999</v>
+      </c>
+      <c r="J45" s="37">
+        <v>53288.8603</v>
+      </c>
+      <c r="K45" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C46">
+        <v>11</v>
+      </c>
+      <c r="D46" s="36" t="s">
+        <v>103</v>
+      </c>
+      <c r="E46" s="37">
         <v>597694</v>
       </c>
-      <c r="F52" t="s">
-        <v>84</v>
-      </c>
-      <c r="G52">
-        <v>3</v>
-      </c>
-      <c r="H52" t="s">
-        <v>32</v>
-      </c>
-      <c r="I52">
-        <v>1940.41361907548</v>
-      </c>
-      <c r="J52">
-        <v>0</v>
-      </c>
-      <c r="K52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D53" t="s">
-        <v>77</v>
-      </c>
-      <c r="E53">
-        <v>597694</v>
-      </c>
-      <c r="F53" t="s">
-        <v>98</v>
-      </c>
-      <c r="G53">
+      <c r="F46" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="G46" s="37">
         <v>4</v>
       </c>
-      <c r="H53" t="s">
-        <v>99</v>
-      </c>
-      <c r="I53">
-        <v>75706.201146138003</v>
-      </c>
-      <c r="J53">
-        <v>168.05122961657</v>
-      </c>
-      <c r="K53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D54" t="s">
-        <v>77</v>
-      </c>
-      <c r="E54">
-        <v>597694</v>
-      </c>
-      <c r="F54" t="s">
-        <v>92</v>
-      </c>
-      <c r="G54">
-        <v>5</v>
-      </c>
-      <c r="H54" t="s">
-        <v>93</v>
-      </c>
-      <c r="I54">
-        <v>370960.385616076</v>
-      </c>
-      <c r="J54">
-        <v>840.23934295988897</v>
-      </c>
-      <c r="K54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D55" t="s">
-        <v>77</v>
-      </c>
-      <c r="E55">
-        <v>597694</v>
-      </c>
-      <c r="F55" t="s">
-        <v>89</v>
-      </c>
-      <c r="G55">
-        <v>6</v>
-      </c>
-      <c r="H55" t="s">
-        <v>90</v>
-      </c>
-      <c r="I55">
-        <v>154144.57386189999</v>
-      </c>
-      <c r="J55">
-        <v>0</v>
-      </c>
-      <c r="K55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D56" t="s">
-        <v>77</v>
-      </c>
-      <c r="E56">
-        <v>597694</v>
-      </c>
-      <c r="F56" t="s">
-        <v>78</v>
-      </c>
-      <c r="G56">
-        <v>8</v>
-      </c>
-      <c r="H56" t="s">
-        <v>100</v>
-      </c>
-      <c r="I56">
-        <v>63689.977933655697</v>
-      </c>
-      <c r="J56">
-        <v>0</v>
-      </c>
-      <c r="K56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D57" t="s">
-        <v>77</v>
-      </c>
-      <c r="E57">
-        <v>597694</v>
-      </c>
-      <c r="F57" t="s">
-        <v>87</v>
-      </c>
-      <c r="G57">
-        <v>9</v>
-      </c>
-      <c r="H57" t="s">
-        <v>88</v>
-      </c>
-      <c r="I57">
-        <v>271911.02829239197</v>
-      </c>
-      <c r="J57">
-        <v>0</v>
-      </c>
-      <c r="K57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D58" t="s">
-        <v>77</v>
-      </c>
-      <c r="E58">
-        <v>597694</v>
-      </c>
-      <c r="F58" t="s">
-        <v>22</v>
-      </c>
-      <c r="G58">
-        <v>10</v>
-      </c>
-      <c r="H58" t="s">
-        <v>101</v>
-      </c>
-      <c r="I58">
-        <v>3861.4231019602098</v>
-      </c>
-      <c r="J58">
-        <v>0</v>
-      </c>
-      <c r="K58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D59" t="s">
-        <v>77</v>
-      </c>
-      <c r="E59">
-        <v>597694</v>
-      </c>
-      <c r="F59" t="s">
-        <v>86</v>
-      </c>
-      <c r="G59">
-        <v>7</v>
-      </c>
-      <c r="H59" t="s">
-        <v>42</v>
-      </c>
-      <c r="I59">
-        <v>-283.74084224798298</v>
-      </c>
-      <c r="J59">
-        <v>993.09294786794203</v>
-      </c>
-      <c r="K59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D60" t="s">
-        <v>77</v>
-      </c>
-      <c r="E60">
-        <v>597694</v>
-      </c>
-      <c r="F60" t="s">
-        <v>102</v>
-      </c>
-      <c r="G60">
-        <v>11</v>
-      </c>
-      <c r="H60" t="s">
-        <v>42</v>
-      </c>
-      <c r="I60">
-        <v>-1134.9633689919301</v>
-      </c>
-      <c r="J60">
-        <v>3972.3717914717699</v>
-      </c>
-      <c r="K60">
+      <c r="H46" s="36" t="s">
+        <v>111</v>
+      </c>
+      <c r="I46" s="37">
+        <v>9230.8690000000006</v>
+      </c>
+      <c r="J46" s="37">
+        <v>20249.766899999999</v>
+      </c>
+      <c r="K46" s="37">
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C36:L46">
+    <sortCondition ref="C36:C46"/>
+  </sortState>
   <mergeCells count="1">
     <mergeCell ref="D4:I15"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O18:O47" xr:uid="{78129805-63BA-43C4-90D2-AF6639A93932}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E20 E22 F18:F34 H18:H33" xr:uid="{7E8E427B-86F9-4CD6-B96B-55F00302E84B}">
       <formula1>#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H18:H47 F18:F48 E20 E22" xr:uid="{7E8E427B-86F9-4CD6-B96B-55F00302E84B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O18:O33" xr:uid="{78129805-63BA-43C4-90D2-AF6639A93932}">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12808355-4D1E-42AD-8E20-0DA4ECD7237D}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/Interventions_Inputs_n_Outputs.xlsx
+++ b/data/Interventions_Inputs_n_Outputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tishmanspeyercloud-my.sharepoint.com/personal/prode_tishmanspeyer_com/Documents/Documents/R/NCZ_Interventions/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="209" documentId="13_ncr:1_{7030BBB7-173A-4394-9DFD-CC14D5F30F06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3C391F75-3D9F-43FF-AE4F-1597CB9F62EE}"/>
+  <xr:revisionPtr revIDLastSave="235" documentId="13_ncr:1_{7030BBB7-173A-4394-9DFD-CC14D5F30F06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E1F4A9EE-77F8-4A78-B66A-654F59C3BF4C}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="10035" yWindow="1980" windowWidth="14475" windowHeight="11265" activeTab="3" xr2:uid="{73048387-4E92-4906-81CA-9C6189A709FA}"/>
+    <workbookView xWindow="28680" yWindow="-75" windowWidth="29040" windowHeight="15840" xr2:uid="{73048387-4E92-4906-81CA-9C6189A709FA}"/>
   </bookViews>
   <sheets>
     <sheet name="160 Spear " sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="123">
   <si>
     <t>Building Level Interventions</t>
   </si>
@@ -829,6 +829,12 @@
     <xf numFmtId="44" fontId="7" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="8" fontId="7" fillId="5" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -855,12 +861,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1375,8 +1375,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF149E70-DC8C-4A8D-84BB-B0051DA57024}">
   <dimension ref="A2:P57"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1404,23 +1404,23 @@
       </c>
     </row>
     <row r="4" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="29"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="31"/>
     </row>
     <row r="5" spans="3:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C5"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="34"/>
       <c r="J5"/>
       <c r="K5"/>
       <c r="L5"/>
@@ -1431,84 +1431,84 @@
     </row>
     <row r="6" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C6" s="3"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="34"/>
     </row>
     <row r="7" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="D7" s="30"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="34"/>
     </row>
     <row r="8" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="D8" s="30"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="34"/>
     </row>
     <row r="9" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="D9" s="30"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="34"/>
     </row>
     <row r="10" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="D10" s="30"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="34"/>
     </row>
     <row r="11" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="D11" s="30"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="34"/>
     </row>
     <row r="12" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="D12" s="30"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="34"/>
     </row>
     <row r="13" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="D13" s="30"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="32"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="34"/>
     </row>
     <row r="14" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="D14" s="30"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="34"/>
     </row>
     <row r="15" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="D15" s="33"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="37"/>
     </row>
     <row r="17" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -1586,10 +1586,10 @@
         <v>99</v>
       </c>
       <c r="I18" s="17">
-        <v>61280.293085420599</v>
+        <v>0.04</v>
       </c>
       <c r="J18" s="17">
-        <v>61943.629234032298</v>
+        <v>0.04</v>
       </c>
       <c r="K18" s="17" t="s">
         <v>100</v>
@@ -1636,10 +1636,10 @@
         <v>102</v>
       </c>
       <c r="I19" s="17">
-        <v>13590.859625511899</v>
+        <v>0.01</v>
       </c>
       <c r="J19" s="17">
-        <v>26675.143319999999</v>
+        <v>0</v>
       </c>
       <c r="K19" s="17" t="s">
         <v>100</v>
@@ -1686,7 +1686,7 @@
         <v>102</v>
       </c>
       <c r="I20" s="17">
-        <v>84122.974507392195</v>
+        <v>0.1</v>
       </c>
       <c r="J20" s="17">
         <v>0</v>
@@ -1736,10 +1736,10 @@
         <v>102</v>
       </c>
       <c r="I21" s="17">
-        <v>-39088.421263962002</v>
+        <v>1</v>
       </c>
       <c r="J21" s="17">
-        <v>133.3757166</v>
+        <v>-1</v>
       </c>
       <c r="K21" s="17" t="s">
         <v>100</v>
@@ -1786,10 +1786,10 @@
         <v>99</v>
       </c>
       <c r="I22" s="17">
-        <v>14228.121804160501</v>
+        <v>0.02</v>
       </c>
       <c r="J22" s="17">
-        <v>18386.175023379099</v>
+        <v>0.02</v>
       </c>
       <c r="K22" s="17" t="s">
         <v>100</v>
@@ -1836,10 +1836,10 @@
         <v>102</v>
       </c>
       <c r="I23" s="17">
-        <v>8110.0294283715202</v>
+        <v>0.05</v>
       </c>
       <c r="J23" s="17">
-        <v>10480.1197633261</v>
+        <v>0.05</v>
       </c>
       <c r="K23" s="17" t="s">
         <v>100</v>
@@ -1886,10 +1886,10 @@
         <v>102</v>
       </c>
       <c r="I24" s="17">
-        <v>-238865.81497372501</v>
+        <v>3</v>
       </c>
       <c r="J24" s="17">
-        <v>2852.6643887400201</v>
+        <v>-1</v>
       </c>
       <c r="K24" s="17" t="s">
         <v>100</v>
@@ -1936,10 +1936,10 @@
         <v>102</v>
       </c>
       <c r="I25" s="17">
-        <v>-836030.35240803903</v>
+        <v>1</v>
       </c>
       <c r="J25" s="17">
-        <v>2852.6643887400201</v>
+        <v>-1</v>
       </c>
       <c r="K25" s="17" t="s">
         <v>100</v>
@@ -1986,10 +1986,10 @@
         <v>102</v>
       </c>
       <c r="I26" s="17">
-        <v>1781.0131034328699</v>
+        <v>0.02</v>
       </c>
       <c r="J26" s="17">
-        <v>20331.4323408526</v>
+        <v>0.02</v>
       </c>
       <c r="K26" s="17" t="s">
         <v>100</v>
@@ -2100,7 +2100,7 @@
       <c r="O32" s="22"/>
       <c r="P32" s="23"/>
     </row>
-    <row r="33" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
@@ -2115,7 +2115,7 @@
       <c r="O33" s="12"/>
       <c r="P33" s="13"/>
     </row>
-    <row r="34" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
@@ -2130,7 +2130,7 @@
       <c r="O34" s="12"/>
       <c r="P34" s="13"/>
     </row>
-    <row r="35" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
@@ -2145,7 +2145,7 @@
       <c r="O35" s="12"/>
       <c r="P35" s="13"/>
     </row>
-    <row r="36" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
@@ -2160,7 +2160,7 @@
       <c r="O36" s="12"/>
       <c r="P36" s="13"/>
     </row>
-    <row r="37" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
@@ -2175,7 +2175,7 @@
       <c r="O37" s="12"/>
       <c r="P37" s="13"/>
     </row>
-    <row r="38" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
@@ -2190,7 +2190,7 @@
       <c r="O38" s="12"/>
       <c r="P38" s="13"/>
     </row>
-    <row r="39" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
@@ -2205,7 +2205,7 @@
       <c r="O39" s="12"/>
       <c r="P39" s="13"/>
     </row>
-    <row r="40" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D40" s="8"/>
       <c r="E40" s="8" t="s">
         <v>20</v>
@@ -2222,7 +2222,7 @@
       <c r="O40" s="12"/>
       <c r="P40" s="13"/>
     </row>
-    <row r="41" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D41" s="8"/>
       <c r="E41" s="8" t="s">
         <v>20</v>
@@ -2241,7 +2241,7 @@
       <c r="O41" s="12"/>
       <c r="P41" s="13"/>
     </row>
-    <row r="42" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
@@ -2256,12 +2256,21 @@
       <c r="O42" s="12"/>
       <c r="P42" s="16"/>
     </row>
-    <row r="45" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E45" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="46" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>41</v>
+      </c>
+      <c r="B46" t="s">
+        <v>39</v>
+      </c>
+      <c r="C46" t="s">
+        <v>40</v>
+      </c>
       <c r="D46" t="s">
         <v>41</v>
       </c>
@@ -2287,7 +2296,16 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>43</v>
+      </c>
+      <c r="B47" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C47" s="18">
+        <v>1</v>
+      </c>
       <c r="D47" t="s">
         <v>43</v>
       </c>
@@ -2313,7 +2331,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>43</v>
+      </c>
+      <c r="B48" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C48" s="18">
+        <v>7</v>
+      </c>
       <c r="D48" t="s">
         <v>43</v>
       </c>
@@ -2339,7 +2366,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>43</v>
+      </c>
+      <c r="B49" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C49" s="18">
+        <v>5</v>
+      </c>
       <c r="D49" t="s">
         <v>43</v>
       </c>
@@ -2365,7 +2401,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>43</v>
+      </c>
+      <c r="B50" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C50" s="18">
+        <v>2</v>
+      </c>
       <c r="D50" t="s">
         <v>43</v>
       </c>
@@ -2391,7 +2436,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>43</v>
+      </c>
+      <c r="B51" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C51" s="18">
+        <v>3</v>
+      </c>
       <c r="D51" t="s">
         <v>43</v>
       </c>
@@ -2417,7 +2471,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>43</v>
+      </c>
+      <c r="B52" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C52" s="18">
+        <v>4</v>
+      </c>
       <c r="D52" t="s">
         <v>43</v>
       </c>
@@ -2443,7 +2506,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>43</v>
+      </c>
+      <c r="B53" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C53" s="18">
+        <v>8</v>
+      </c>
       <c r="D53" t="s">
         <v>43</v>
       </c>
@@ -2469,7 +2541,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>43</v>
+      </c>
+      <c r="B54" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C54" s="18">
+        <v>8</v>
+      </c>
       <c r="D54" t="s">
         <v>43</v>
       </c>
@@ -2495,7 +2576,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>43</v>
+      </c>
+      <c r="B55" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C55" s="18">
+        <v>6</v>
+      </c>
       <c r="D55" t="s">
         <v>43</v>
       </c>
@@ -2521,7 +2611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E57" t="s">
         <v>20</v>
       </c>
@@ -2535,7 +2625,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O18:O42" xr:uid="{25478E18-0184-44CC-B842-F228497F826A}">
       <formula1>#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18:B43 H18:H42 F18:F43" xr:uid="{19480D23-33C3-4743-91EA-3363E4F8A8EB}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18:B43 H18:H42 F18:F43 B47:B55" xr:uid="{19480D23-33C3-4743-91EA-3363E4F8A8EB}">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
@@ -2549,7 +2639,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CB72813-A570-4FD0-A022-CFACC42DD505}">
   <dimension ref="A2:P64"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
@@ -2578,23 +2668,23 @@
       </c>
     </row>
     <row r="4" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="29"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="31"/>
     </row>
     <row r="5" spans="3:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C5"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="34"/>
       <c r="J5"/>
       <c r="K5"/>
       <c r="L5"/>
@@ -2605,84 +2695,84 @@
     </row>
     <row r="6" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C6" s="3"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="34"/>
     </row>
     <row r="7" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="D7" s="30"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="34"/>
     </row>
     <row r="8" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="D8" s="30"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="34"/>
     </row>
     <row r="9" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="D9" s="30"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="34"/>
     </row>
     <row r="10" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="D10" s="30"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="34"/>
     </row>
     <row r="11" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="D11" s="30"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="34"/>
     </row>
     <row r="12" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="D12" s="30"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="34"/>
     </row>
     <row r="13" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="D13" s="30"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="32"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="34"/>
     </row>
     <row r="14" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="D14" s="30"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="34"/>
     </row>
     <row r="15" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="D15" s="33"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="37"/>
     </row>
     <row r="17" spans="1:16" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -4069,23 +4159,23 @@
       </c>
     </row>
     <row r="4" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="29"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="31"/>
     </row>
     <row r="5" spans="3:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C5"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="34"/>
       <c r="J5"/>
       <c r="K5"/>
       <c r="L5"/>
@@ -4096,84 +4186,84 @@
     </row>
     <row r="6" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C6" s="3"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="34"/>
     </row>
     <row r="7" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="D7" s="30"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="34"/>
     </row>
     <row r="8" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="D8" s="30"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="34"/>
     </row>
     <row r="9" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="D9" s="30"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="34"/>
     </row>
     <row r="10" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="D10" s="30"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="34"/>
     </row>
     <row r="11" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="D11" s="30"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="34"/>
     </row>
     <row r="12" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="D12" s="30"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="34"/>
     </row>
     <row r="13" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="D13" s="30"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="32"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="34"/>
     </row>
     <row r="14" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="D14" s="30"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="34"/>
     </row>
     <row r="15" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="D15" s="33"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="37"/>
     </row>
     <row r="17" spans="1:16" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -4887,28 +4977,28 @@
       <c r="C36">
         <v>1</v>
       </c>
-      <c r="D36" s="36" t="s">
+      <c r="D36" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="E36" s="37">
+      <c r="E36" s="28">
         <v>597694</v>
       </c>
-      <c r="F36" s="36" t="s">
+      <c r="F36" s="27" t="s">
         <v>115</v>
       </c>
-      <c r="G36" s="37">
+      <c r="G36" s="28">
         <v>8</v>
       </c>
-      <c r="H36" s="36" t="s">
+      <c r="H36" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="I36" s="37">
+      <c r="I36" s="28">
         <v>7833.4369999999999</v>
       </c>
-      <c r="J36" s="37">
-        <v>0</v>
-      </c>
-      <c r="K36" s="37">
+      <c r="J36" s="28">
+        <v>0</v>
+      </c>
+      <c r="K36" s="28">
         <v>0</v>
       </c>
     </row>
@@ -4916,28 +5006,28 @@
       <c r="C37">
         <v>2</v>
       </c>
-      <c r="D37" s="36" t="s">
+      <c r="D37" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="E37" s="37">
+      <c r="E37" s="28">
         <v>597694</v>
       </c>
-      <c r="F37" s="36" t="s">
+      <c r="F37" s="27" t="s">
         <v>119</v>
       </c>
-      <c r="G37" s="37">
+      <c r="G37" s="28">
         <v>10</v>
       </c>
-      <c r="H37" s="36" t="s">
+      <c r="H37" s="27" t="s">
         <v>120</v>
       </c>
-      <c r="I37" s="37">
+      <c r="I37" s="28">
         <v>46337.076999999997</v>
       </c>
-      <c r="J37" s="37">
-        <v>0</v>
-      </c>
-      <c r="K37" s="37">
+      <c r="J37" s="28">
+        <v>0</v>
+      </c>
+      <c r="K37" s="28">
         <v>0</v>
       </c>
     </row>
@@ -4945,28 +5035,28 @@
       <c r="C38">
         <v>3</v>
       </c>
-      <c r="D38" s="36" t="s">
+      <c r="D38" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="E38" s="37">
+      <c r="E38" s="28">
         <v>597694</v>
       </c>
-      <c r="F38" s="36" t="s">
+      <c r="F38" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="G38" s="37">
+      <c r="G38" s="28">
         <v>11</v>
       </c>
-      <c r="H38" s="36" t="s">
+      <c r="H38" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="I38" s="37">
+      <c r="I38" s="28">
         <v>-24296.017</v>
       </c>
-      <c r="J38" s="37">
+      <c r="J38" s="28">
         <v>290.15609999999998</v>
       </c>
-      <c r="K38" s="37">
+      <c r="K38" s="28">
         <v>0</v>
       </c>
     </row>
@@ -4974,28 +5064,28 @@
       <c r="C39">
         <v>4</v>
       </c>
-      <c r="D39" s="36" t="s">
+      <c r="D39" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="E39" s="37">
+      <c r="E39" s="28">
         <v>597694</v>
       </c>
-      <c r="F39" s="36" t="s">
+      <c r="F39" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="G39" s="37">
+      <c r="G39" s="28">
         <v>3</v>
       </c>
-      <c r="H39" s="36" t="s">
+      <c r="H39" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="I39" s="37">
+      <c r="I39" s="28">
         <v>23284.963</v>
       </c>
-      <c r="J39" s="37">
-        <v>0</v>
-      </c>
-      <c r="K39" s="37">
+      <c r="J39" s="28">
+        <v>0</v>
+      </c>
+      <c r="K39" s="28">
         <v>0</v>
       </c>
     </row>
@@ -5003,28 +5093,28 @@
       <c r="C40">
         <v>5</v>
       </c>
-      <c r="D40" s="36" t="s">
+      <c r="D40" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="E40" s="37">
+      <c r="E40" s="28">
         <v>597694</v>
       </c>
-      <c r="F40" s="36" t="s">
+      <c r="F40" s="27" t="s">
         <v>121</v>
       </c>
-      <c r="G40" s="37">
+      <c r="G40" s="28">
         <v>7</v>
       </c>
-      <c r="H40" s="36" t="s">
+      <c r="H40" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="I40" s="37">
+      <c r="I40" s="28">
         <v>-10123.34</v>
       </c>
-      <c r="J40" s="37">
+      <c r="J40" s="28">
         <v>120.8984</v>
       </c>
-      <c r="K40" s="37">
+      <c r="K40" s="28">
         <v>0</v>
       </c>
     </row>
@@ -5032,28 +5122,28 @@
       <c r="C41">
         <v>6</v>
       </c>
-      <c r="D41" s="36" t="s">
+      <c r="D41" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="E41" s="37">
+      <c r="E41" s="28">
         <v>597694</v>
       </c>
-      <c r="F41" s="36" t="s">
+      <c r="F41" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="G41" s="37">
+      <c r="G41" s="28">
         <v>9</v>
       </c>
-      <c r="H41" s="36" t="s">
+      <c r="H41" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="I41" s="37">
+      <c r="I41" s="28">
         <v>27182.309000000001</v>
       </c>
-      <c r="J41" s="37">
-        <v>0</v>
-      </c>
-      <c r="K41" s="37">
+      <c r="J41" s="28">
+        <v>0</v>
+      </c>
+      <c r="K41" s="28">
         <v>0</v>
       </c>
     </row>
@@ -5061,28 +5151,28 @@
       <c r="C42">
         <v>7</v>
       </c>
-      <c r="D42" s="36" t="s">
+      <c r="D42" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="E42" s="37">
+      <c r="E42" s="28">
         <v>597694</v>
       </c>
-      <c r="F42" s="36" t="s">
+      <c r="F42" s="27" t="s">
         <v>114</v>
       </c>
-      <c r="G42" s="37">
+      <c r="G42" s="28">
         <v>6</v>
       </c>
-      <c r="H42" s="36" t="s">
+      <c r="H42" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="I42" s="37">
+      <c r="I42" s="28">
         <v>15409.472</v>
       </c>
-      <c r="J42" s="37">
-        <v>0</v>
-      </c>
-      <c r="K42" s="37">
+      <c r="J42" s="28">
+        <v>0</v>
+      </c>
+      <c r="K42" s="28">
         <v>0</v>
       </c>
     </row>
@@ -5090,28 +5180,28 @@
       <c r="C43">
         <v>8</v>
       </c>
-      <c r="D43" s="36" t="s">
+      <c r="D43" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="E43" s="37">
+      <c r="E43" s="28">
         <v>597694</v>
       </c>
-      <c r="F43" s="36" t="s">
+      <c r="F43" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="G43" s="37">
+      <c r="G43" s="28">
         <v>1</v>
       </c>
-      <c r="H43" s="36" t="s">
+      <c r="H43" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="I43" s="37">
+      <c r="I43" s="28">
         <v>25570.275000000001</v>
       </c>
-      <c r="J43" s="37">
+      <c r="J43" s="28">
         <v>56093.537199999999</v>
       </c>
-      <c r="K43" s="37">
+      <c r="K43" s="28">
         <v>0</v>
       </c>
     </row>
@@ -5119,28 +5209,28 @@
       <c r="C44">
         <v>9</v>
       </c>
-      <c r="D44" s="36" t="s">
+      <c r="D44" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="E44" s="37">
+      <c r="E44" s="28">
         <v>597694</v>
       </c>
-      <c r="F44" s="36" t="s">
+      <c r="F44" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="G44" s="37">
+      <c r="G44" s="28">
         <v>5</v>
       </c>
-      <c r="H44" s="36" t="s">
+      <c r="H44" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="I44" s="37">
+      <c r="I44" s="28">
         <v>45231.26</v>
       </c>
-      <c r="J44" s="37">
+      <c r="J44" s="28">
         <v>99223.857900000003</v>
       </c>
-      <c r="K44" s="37">
+      <c r="K44" s="28">
         <v>0</v>
       </c>
     </row>
@@ -5148,28 +5238,28 @@
       <c r="C45">
         <v>10</v>
       </c>
-      <c r="D45" s="36" t="s">
+      <c r="D45" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="E45" s="37">
+      <c r="E45" s="28">
         <v>597694</v>
       </c>
-      <c r="F45" s="36" t="s">
+      <c r="F45" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="G45" s="37">
+      <c r="G45" s="28">
         <v>2</v>
       </c>
-      <c r="H45" s="36" t="s">
+      <c r="H45" s="27" t="s">
         <v>107</v>
       </c>
-      <c r="I45" s="37">
+      <c r="I45" s="28">
         <v>24291.760999999999</v>
       </c>
-      <c r="J45" s="37">
+      <c r="J45" s="28">
         <v>53288.8603</v>
       </c>
-      <c r="K45" s="37">
+      <c r="K45" s="28">
         <v>0</v>
       </c>
     </row>
@@ -5177,28 +5267,28 @@
       <c r="C46">
         <v>11</v>
       </c>
-      <c r="D46" s="36" t="s">
+      <c r="D46" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="E46" s="37">
+      <c r="E46" s="28">
         <v>597694</v>
       </c>
-      <c r="F46" s="36" t="s">
+      <c r="F46" s="27" t="s">
         <v>110</v>
       </c>
-      <c r="G46" s="37">
+      <c r="G46" s="28">
         <v>4</v>
       </c>
-      <c r="H46" s="36" t="s">
+      <c r="H46" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="I46" s="37">
+      <c r="I46" s="28">
         <v>9230.8690000000006</v>
       </c>
-      <c r="J46" s="37">
+      <c r="J46" s="28">
         <v>20249.766899999999</v>
       </c>
-      <c r="K46" s="37">
+      <c r="K46" s="28">
         <v>0</v>
       </c>
     </row>
@@ -5226,7 +5316,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12808355-4D1E-42AD-8E20-0DA4ECD7237D}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
